--- a/tut05/output/0501ME21.xlsx
+++ b/tut05/output/0501ME21.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.469387755102041</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>8.568181818181818</v>
+        <v>8.57</v>
       </c>
       <c r="D6" t="n">
-        <v>8.48936170212766</v>
+        <v>8.49</v>
       </c>
       <c r="E6" t="n">
-        <v>8.591836734693878</v>
+        <v>8.59</v>
       </c>
       <c r="F6" t="n">
-        <v>9.434782608695652</v>
+        <v>9.43</v>
       </c>
       <c r="G6" t="n">
-        <v>9.043478260869565</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>9.199999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.469387755102041</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>8.516129032258064</v>
+        <v>8.52</v>
       </c>
       <c r="D8" t="n">
-        <v>8.507142857142858</v>
+        <v>8.51</v>
       </c>
       <c r="E8" t="n">
-        <v>8.529100529100528</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.706382978723404</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.761565836298933</v>
+        <v>8.76</v>
       </c>
       <c r="H8" t="n">
-        <v>8.81619937694704</v>
+        <v>8.82</v>
       </c>
       <c r="I8" t="n">
-        <v>8.930747922437673</v>
+        <v>8.93</v>
       </c>
     </row>
   </sheetData>
